--- a/GameEngineering/result.xlsx
+++ b/GameEngineering/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22870\source\repos\GamesEngineering\GameEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A71E0DF-D58A-4487-BD37-EB37F1069EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED701D87-A9EC-4261-9A1E-81F218575055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7425" yWindow="2640" windowWidth="28800" windowHeight="15435" xr2:uid="{ED76F7D0-EABA-402B-A29B-D47D488FB6C6}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/GameEngineering/result.xlsx
+++ b/GameEngineering/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22870\source\repos\GamesEngineering\GameEngineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED701D87-A9EC-4261-9A1E-81F218575055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715EADE2-EB78-4D37-BD3D-2AF7CA83DBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="2640" windowWidth="28800" windowHeight="15435" xr2:uid="{ED76F7D0-EABA-402B-A29B-D47D488FB6C6}"/>
+    <workbookView xWindow="13065" yWindow="2145" windowWidth="28800" windowHeight="15435" xr2:uid="{ED76F7D0-EABA-402B-A29B-D47D488FB6C6}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -642,43 +642,43 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>11484.9</v>
+        <v>6207.62</v>
       </c>
       <c r="C15">
-        <v>10474.4</v>
+        <v>6203.89</v>
       </c>
       <c r="D15">
-        <v>11171.8</v>
+        <v>6268.25</v>
       </c>
       <c r="E15">
         <f>AVERAGE(B15:D15)</f>
-        <v>11043.699999999999</v>
+        <v>6226.586666666667</v>
       </c>
       <c r="G15">
-        <v>3512.64</v>
+        <v>2435.73</v>
       </c>
       <c r="H15">
-        <v>3734.08</v>
+        <v>2467.4899999999998</v>
       </c>
       <c r="I15">
-        <v>4117.47</v>
+        <v>2451.09</v>
       </c>
       <c r="J15">
         <f>AVERAGE(G15:I15)</f>
-        <v>3788.063333333333</v>
+        <v>2451.4366666666665</v>
       </c>
       <c r="L15">
-        <v>32257.3</v>
+        <v>11350.5</v>
       </c>
       <c r="M15">
-        <v>35978.800000000003</v>
+        <v>11516.2</v>
       </c>
       <c r="N15">
-        <v>33081</v>
+        <v>12656</v>
       </c>
       <c r="O15">
         <f>AVERAGE(L15:N15)</f>
-        <v>33772.366666666669</v>
+        <v>11840.9</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -686,43 +686,43 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>11333.2</v>
+        <v>6529.46</v>
       </c>
       <c r="C16">
-        <v>10827.1</v>
+        <v>6456.63</v>
       </c>
       <c r="D16">
-        <v>11831.4</v>
+        <v>6453.25</v>
       </c>
       <c r="E16">
         <f t="shared" ref="E16:E24" si="1">AVERAGE(B16:D16)</f>
-        <v>11330.566666666668</v>
+        <v>6479.78</v>
       </c>
       <c r="G16">
-        <v>3741.74</v>
+        <v>2443.69</v>
       </c>
       <c r="H16">
-        <v>3797.04</v>
+        <v>2461.08</v>
       </c>
       <c r="I16">
-        <v>3800.52</v>
+        <v>2465.38</v>
       </c>
       <c r="J16">
         <f t="shared" ref="J16:J24" si="2">AVERAGE(G16:I16)</f>
-        <v>3779.7666666666664</v>
+        <v>2456.7166666666667</v>
       </c>
       <c r="L16">
-        <v>29948.3</v>
+        <v>11355.5</v>
       </c>
       <c r="M16">
-        <v>30827</v>
+        <v>11506</v>
       </c>
       <c r="N16">
-        <v>34443.1</v>
+        <v>11412.7</v>
       </c>
       <c r="O16">
         <f t="shared" ref="O16:O24" si="3">AVERAGE(L16:N16)</f>
-        <v>31739.466666666664</v>
+        <v>11424.733333333332</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -730,43 +730,43 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>11415.1</v>
+        <v>6701.83</v>
       </c>
       <c r="C17">
-        <v>11251.6</v>
+        <v>6630.09</v>
       </c>
       <c r="D17">
-        <v>11228.4</v>
+        <v>6655.46</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>11298.366666666667</v>
+        <v>6662.46</v>
       </c>
       <c r="G17">
-        <v>3579.33</v>
+        <v>2429.7199999999998</v>
       </c>
       <c r="H17">
-        <v>3640.68</v>
+        <v>2427.27</v>
       </c>
       <c r="I17">
-        <v>3887.53</v>
+        <v>2456.2800000000002</v>
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>3702.5133333333338</v>
+        <v>2437.7566666666667</v>
       </c>
       <c r="L17">
-        <v>30045</v>
+        <v>11422.1</v>
       </c>
       <c r="M17">
-        <v>29078.7</v>
+        <v>11380.9</v>
       </c>
       <c r="N17">
-        <v>29397.8</v>
+        <v>11371.9</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>29507.166666666668</v>
+        <v>11391.633333333333</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -774,43 +774,43 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>10932</v>
+        <v>6524.28</v>
       </c>
       <c r="C18">
-        <v>11404.4</v>
+        <v>6509.72</v>
       </c>
       <c r="D18">
-        <v>11260.6</v>
+        <v>6515.24</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>11199</v>
+        <v>6516.413333333333</v>
       </c>
       <c r="G18">
-        <v>3828.89</v>
+        <v>2492.42</v>
       </c>
       <c r="H18">
-        <v>3863.73</v>
+        <v>2483.16</v>
       </c>
       <c r="I18">
-        <v>3925.89</v>
+        <v>2453.14</v>
       </c>
       <c r="J18">
         <f t="shared" si="2"/>
-        <v>3872.8366666666666</v>
+        <v>2476.2399999999998</v>
       </c>
       <c r="L18">
-        <v>30029</v>
+        <v>11453.8</v>
       </c>
       <c r="M18">
-        <v>29131.3</v>
+        <v>11353.2</v>
       </c>
       <c r="N18">
-        <v>31638</v>
+        <v>11370.9</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>30266.100000000002</v>
+        <v>11392.633333333333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -818,43 +818,43 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>11908.7</v>
+        <v>6610.06</v>
       </c>
       <c r="C19">
-        <v>10871.5</v>
+        <v>6575.72</v>
       </c>
       <c r="D19">
-        <v>11396.4</v>
+        <v>6555.69</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>11392.199999999999</v>
+        <v>6580.4900000000007</v>
       </c>
       <c r="G19">
-        <v>3817.84</v>
+        <v>2491.6799999999998</v>
       </c>
       <c r="H19">
-        <v>3936.72</v>
+        <v>2516.83</v>
       </c>
       <c r="I19">
-        <v>3764.02</v>
+        <v>2488.5</v>
       </c>
       <c r="J19">
         <f t="shared" si="2"/>
-        <v>3839.5266666666666</v>
+        <v>2499.0033333333336</v>
       </c>
       <c r="L19">
-        <v>29644.2</v>
+        <v>11386.8</v>
       </c>
       <c r="M19">
-        <v>30521.599999999999</v>
+        <v>11360</v>
       </c>
       <c r="N19">
-        <v>29098.6</v>
+        <v>11433.4</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>29754.799999999999</v>
+        <v>11393.4</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -862,43 +862,43 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>11248.6</v>
+        <v>6704.58</v>
       </c>
       <c r="C20">
-        <v>10384.9</v>
+        <v>6659.62</v>
       </c>
       <c r="D20">
-        <v>10695</v>
+        <v>6695.59</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>10776.166666666666</v>
+        <v>6686.5966666666673</v>
       </c>
       <c r="G20">
-        <v>3756.84</v>
+        <v>2485.85</v>
       </c>
       <c r="H20">
-        <v>3895.79</v>
+        <v>2502.7199999999998</v>
       </c>
       <c r="I20">
-        <v>3945.72</v>
+        <v>2529.42</v>
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>3866.1166666666668</v>
+        <v>2505.9966666666664</v>
       </c>
       <c r="L20">
-        <v>29696.9</v>
+        <v>11335.6</v>
       </c>
       <c r="M20">
-        <v>29550.7</v>
+        <v>11384.3</v>
       </c>
       <c r="N20">
-        <v>30865.3</v>
+        <v>11299.6</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>30037.633333333335</v>
+        <v>11339.833333333334</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -906,43 +906,43 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>10662.6</v>
+        <v>6520.34</v>
       </c>
       <c r="C21">
-        <v>11566.1</v>
+        <v>6471.82</v>
       </c>
       <c r="D21">
-        <v>11316.9</v>
+        <v>6447.7</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>11181.866666666667</v>
+        <v>6479.9533333333338</v>
       </c>
       <c r="G21">
-        <v>3857.49</v>
+        <v>2478.9499999999998</v>
       </c>
       <c r="H21">
-        <v>3977.99</v>
+        <v>2498.06</v>
       </c>
       <c r="I21">
-        <v>4136.1400000000003</v>
+        <v>2492.8000000000002</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>3990.5399999999995</v>
+        <v>2489.936666666667</v>
       </c>
       <c r="L21">
-        <v>29392.400000000001</v>
+        <v>11595.6</v>
       </c>
       <c r="M21">
-        <v>29600</v>
+        <v>11603.8</v>
       </c>
       <c r="N21">
-        <v>29921.7</v>
+        <v>11609.8</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>29638.033333333336</v>
+        <v>11603.066666666666</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -950,43 +950,43 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>11556.4</v>
+        <v>6785.34</v>
       </c>
       <c r="C22">
-        <v>11150.4</v>
+        <v>6751.45</v>
       </c>
       <c r="D22">
-        <v>11314.3</v>
+        <v>6760.77</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>11340.366666666667</v>
+        <v>6765.8533333333335</v>
       </c>
       <c r="G22">
-        <v>3842.23</v>
+        <v>2525.2199999999998</v>
       </c>
       <c r="H22">
-        <v>3914.89</v>
+        <v>2515.73</v>
       </c>
       <c r="I22">
-        <v>3823.02</v>
+        <v>2494.54</v>
       </c>
       <c r="J22">
         <f t="shared" si="2"/>
-        <v>3860.0466666666666</v>
+        <v>2511.83</v>
       </c>
       <c r="L22">
-        <v>30553.5</v>
+        <v>11358.3</v>
       </c>
       <c r="M22">
-        <v>29350.400000000001</v>
+        <v>11392.9</v>
       </c>
       <c r="N22">
-        <v>29248.2</v>
+        <v>11587.7</v>
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>29717.366666666669</v>
+        <v>11446.299999999997</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -994,43 +994,43 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>11427.9</v>
+        <v>6828.49</v>
       </c>
       <c r="C23">
-        <v>10802</v>
+        <v>6839.53</v>
       </c>
       <c r="D23">
-        <v>11119.2</v>
+        <v>6827.19</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>11116.366666666669</v>
+        <v>6831.7366666666667</v>
       </c>
       <c r="G23">
-        <v>4228.1000000000004</v>
+        <v>2537.83</v>
       </c>
       <c r="H23">
-        <v>4076.33</v>
+        <v>2560.09</v>
       </c>
       <c r="I23">
-        <v>4308.8500000000004</v>
+        <v>2559.08</v>
       </c>
       <c r="J23">
         <f t="shared" si="2"/>
-        <v>4204.4266666666672</v>
+        <v>2552.3333333333335</v>
       </c>
       <c r="L23">
-        <v>30562.9</v>
+        <v>11455.7</v>
       </c>
       <c r="M23">
-        <v>30703.5</v>
+        <v>11441.8</v>
       </c>
       <c r="N23">
-        <v>31415</v>
+        <v>11514.9</v>
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>30893.8</v>
+        <v>11470.800000000001</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1038,43 +1038,43 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>11524.3</v>
+        <v>6936.35</v>
       </c>
       <c r="C24">
-        <v>10870.2</v>
+        <v>6845.66</v>
       </c>
       <c r="D24">
-        <v>11036.1</v>
+        <v>6835.15</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>11143.533333333333</v>
+        <v>6872.3866666666663</v>
       </c>
       <c r="G24">
-        <v>4057.38</v>
+        <v>2553.56</v>
       </c>
       <c r="H24">
-        <v>4064.36</v>
+        <v>2545.0500000000002</v>
       </c>
       <c r="I24">
-        <v>4309.29</v>
+        <v>2548.7199999999998</v>
       </c>
       <c r="J24">
         <f t="shared" si="2"/>
-        <v>4143.6766666666663</v>
+        <v>2549.11</v>
       </c>
       <c r="L24">
-        <v>33049.9</v>
+        <v>11432.7</v>
       </c>
       <c r="M24">
-        <v>30471</v>
+        <v>11398.2</v>
       </c>
       <c r="N24">
-        <v>30327.5</v>
+        <v>11452.3</v>
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>31282.799999999999</v>
+        <v>11427.733333333332</v>
       </c>
     </row>
   </sheetData>
